--- a/CustomLocalization-RU/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
@@ -1492,10 +1492,10 @@
     <t>AbilityP8Mobility.Description.Details</t>
   </si>
   <si>
-    <t>ACTION: Push your Engine to the Limit, +50% Run Speed, +2 Max Evasive. Has a 3 turn cooldown.</t>
-  </si>
-  <si>
-    <t>АКТИВАЦИЯ: разгоняет ваш двигатель до предела, +50% к спринту, +2 к лимиту шевронов уклонения. Перезарядка 3 хода.</t>
+    <t>ACTION: Push your Engine to the Limit, +1 Walk MP. Has a 3 turn cooldown.</t>
+  </si>
+  <si>
+    <t>АКТИВАЦИЯ: разгоняет ваш двигатель, +1 гекс к Шагу. Перезарядка 3 хода.</t>
   </si>
   <si>
     <t>AbilityP8Mobility.Description.Name</t>
@@ -2620,12 +2620,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
   </cellXfs>
@@ -2932,15 +2936,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="C470" sqref="C470"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="77.7109375" customWidth="1" style="3"/>
-    <col min="4" max="8" width="9.140625" customWidth="1" style="3"/>
-    <col min="9" max="16384" width="9.140625" customWidth="1" style="3"/>
+    <col min="4" max="10" width="9.140625" customWidth="1" style="3"/>
+    <col min="11" max="16384" width="9.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2950,7 +2954,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3">
@@ -2964,7 +2968,7 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3">
@@ -2978,7 +2982,7 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
@@ -2992,7 +2996,7 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3">
@@ -3006,7 +3010,7 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3">
@@ -3020,7 +3024,7 @@
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3">
@@ -3034,7 +3038,7 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="3">
@@ -3048,7 +3052,7 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="3">
@@ -3062,7 +3066,7 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3">
@@ -3076,7 +3080,7 @@
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="3">
@@ -3090,7 +3094,7 @@
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
@@ -3104,7 +3108,7 @@
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="3">
@@ -3118,7 +3122,7 @@
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="3">
@@ -3132,7 +3136,7 @@
       <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="3">
@@ -3146,7 +3150,7 @@
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="3">
@@ -3160,7 +3164,7 @@
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="3">
@@ -3174,7 +3178,7 @@
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
@@ -3188,7 +3192,7 @@
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="3">
@@ -3202,7 +3206,7 @@
       <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="3">
@@ -3216,7 +3220,7 @@
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="3">
@@ -3230,7 +3234,7 @@
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="3">
@@ -3244,7 +3248,7 @@
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="3">
@@ -3258,7 +3262,7 @@
       <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="3">
@@ -3272,7 +3276,7 @@
       <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="3">
@@ -3286,7 +3290,7 @@
       <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="3">
@@ -3300,7 +3304,7 @@
       <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="3">
@@ -3314,7 +3318,7 @@
       <c r="B27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="3">
@@ -3328,7 +3332,7 @@
       <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="3">
@@ -3342,7 +3346,7 @@
       <c r="B29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="3">
@@ -3356,7 +3360,7 @@
       <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="3">
@@ -3370,7 +3374,7 @@
       <c r="B31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E31" s="3">
@@ -3384,7 +3388,7 @@
       <c r="B32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="3">
@@ -3398,7 +3402,7 @@
       <c r="B33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="3">
@@ -3412,7 +3416,7 @@
       <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="3">
@@ -3426,7 +3430,7 @@
       <c r="B35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E35" s="3">
@@ -3440,7 +3444,7 @@
       <c r="B36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="3">
@@ -3454,7 +3458,7 @@
       <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="3">
@@ -3468,7 +3472,7 @@
       <c r="B38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="3">
@@ -3482,7 +3486,7 @@
       <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E39" s="3">
@@ -3496,7 +3500,7 @@
       <c r="B40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E40" s="3">
@@ -3510,7 +3514,7 @@
       <c r="B41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E41" s="3">
@@ -3524,7 +3528,7 @@
       <c r="B42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E42" s="3">
@@ -3538,7 +3542,7 @@
       <c r="B43" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E43" s="3">
@@ -3552,7 +3556,7 @@
       <c r="B44" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>108</v>
       </c>
       <c r="E44" s="3">
@@ -3566,7 +3570,7 @@
       <c r="B45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E45" s="3">
@@ -3580,7 +3584,7 @@
       <c r="B46" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E46" s="3">
@@ -3594,7 +3598,7 @@
       <c r="B47" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E47" s="3">
@@ -3608,7 +3612,7 @@
       <c r="B48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>120</v>
       </c>
       <c r="E48" s="3">
@@ -3622,7 +3626,7 @@
       <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="3">
@@ -3636,7 +3640,7 @@
       <c r="B50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E50" s="3">
@@ -3650,7 +3654,7 @@
       <c r="B51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E51" s="3">
@@ -3664,7 +3668,7 @@
       <c r="B52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E52" s="3">
@@ -3678,7 +3682,7 @@
       <c r="B53" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>135</v>
       </c>
       <c r="E53" s="3">
@@ -3692,7 +3696,7 @@
       <c r="B54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E54" s="3">
@@ -3706,7 +3710,7 @@
       <c r="B55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E55" s="3">
@@ -3720,7 +3724,7 @@
       <c r="B56" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E56" s="3">
@@ -3734,7 +3738,7 @@
       <c r="B57" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>147</v>
       </c>
       <c r="E57" s="3">
@@ -3748,7 +3752,7 @@
       <c r="B58" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E58" s="3">
@@ -3762,7 +3766,7 @@
       <c r="B59" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="7" t="s">
         <v>153</v>
       </c>
       <c r="E59" s="3">
@@ -3776,7 +3780,7 @@
       <c r="B60" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>156</v>
       </c>
       <c r="E60" s="3">
@@ -3790,7 +3794,7 @@
       <c r="B61" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="8" t="s">
         <v>159</v>
       </c>
       <c r="E61" s="3">
@@ -3804,7 +3808,7 @@
       <c r="B62" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="7" t="s">
         <v>161</v>
       </c>
       <c r="E62" s="3">
@@ -3818,7 +3822,7 @@
       <c r="B63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E63" s="3">
@@ -3832,7 +3836,7 @@
       <c r="B64" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E64" s="3">
@@ -3846,7 +3850,7 @@
       <c r="B65" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="7" t="s">
         <v>153</v>
       </c>
       <c r="E65" s="3">
@@ -3860,7 +3864,7 @@
       <c r="B66" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="7" t="s">
         <v>156</v>
       </c>
       <c r="E66" s="3">
@@ -3874,7 +3878,7 @@
       <c r="B67" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="8" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="3">
@@ -3888,7 +3892,7 @@
       <c r="B68" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="7" t="s">
         <v>172</v>
       </c>
       <c r="E68" s="3">
@@ -3902,7 +3906,7 @@
       <c r="B69" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="7" t="s">
         <v>175</v>
       </c>
       <c r="E69" s="3">
@@ -3916,7 +3920,7 @@
       <c r="B70" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E70" s="3">
@@ -3930,7 +3934,7 @@
       <c r="B71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="7" t="s">
         <v>181</v>
       </c>
       <c r="E71" s="3">
@@ -3944,7 +3948,7 @@
       <c r="B72" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E72" s="3">
@@ -3958,7 +3962,7 @@
       <c r="B73" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E73" s="3">
@@ -3972,7 +3976,7 @@
       <c r="B74" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="7" t="s">
         <v>190</v>
       </c>
       <c r="E74" s="3">
@@ -3986,7 +3990,7 @@
       <c r="B75" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E75" s="3">
@@ -4000,7 +4004,7 @@
       <c r="B76" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="7" t="s">
         <v>196</v>
       </c>
       <c r="E76" s="3">
@@ -4014,7 +4018,7 @@
       <c r="B77" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E77" s="3">
@@ -4028,7 +4032,7 @@
       <c r="B78" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E78" s="3">
@@ -4042,7 +4046,7 @@
       <c r="B79" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="7" t="s">
         <v>203</v>
       </c>
       <c r="E79" s="3">
@@ -4056,7 +4060,7 @@
       <c r="B80" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="7" t="s">
         <v>206</v>
       </c>
       <c r="E80" s="3">
@@ -4070,7 +4074,7 @@
       <c r="B81" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="7" t="s">
         <v>209</v>
       </c>
       <c r="E81" s="3">
@@ -4084,7 +4088,7 @@
       <c r="B82" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="7" t="s">
         <v>212</v>
       </c>
       <c r="E82" s="3">
@@ -4098,7 +4102,7 @@
       <c r="B83" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="7" t="s">
         <v>215</v>
       </c>
       <c r="E83" s="3">
@@ -4112,7 +4116,7 @@
       <c r="B84" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E84" s="3">
@@ -4126,7 +4130,7 @@
       <c r="B85" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="7" t="s">
         <v>220</v>
       </c>
       <c r="E85" s="3">
@@ -4140,7 +4144,7 @@
       <c r="B86" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E86" s="3">
@@ -4154,7 +4158,7 @@
       <c r="B87" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E87" s="3">
@@ -4168,7 +4172,7 @@
       <c r="B88" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E88" s="3">
@@ -4182,7 +4186,7 @@
       <c r="B89" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E89" s="3">
@@ -4196,7 +4200,7 @@
       <c r="B90" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E90" s="3">
@@ -4210,7 +4214,7 @@
       <c r="B91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E91" s="3">
@@ -4224,7 +4228,7 @@
       <c r="B92" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E92" s="3">
@@ -4238,7 +4242,7 @@
       <c r="B93" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E93" s="3">
@@ -4252,7 +4256,7 @@
       <c r="B94" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E94" s="3">
@@ -4266,7 +4270,7 @@
       <c r="B95" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="7" t="s">
         <v>238</v>
       </c>
       <c r="E95" s="3">
@@ -4280,7 +4284,7 @@
       <c r="B96" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E96" s="3">
@@ -4294,7 +4298,7 @@
       <c r="B97" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E97" s="3">
@@ -4308,7 +4312,7 @@
       <c r="B98" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="8" t="s">
         <v>247</v>
       </c>
       <c r="E98" s="3">
@@ -4322,7 +4326,7 @@
       <c r="B99" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E99" s="3">
@@ -4336,7 +4340,7 @@
       <c r="B100" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E100" s="3">
@@ -4350,7 +4354,7 @@
       <c r="B101" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E101" s="3">
@@ -4364,7 +4368,7 @@
       <c r="B102" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="7" t="s">
         <v>253</v>
       </c>
       <c r="E102" s="3">
@@ -4378,7 +4382,7 @@
       <c r="B103" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="7" t="s">
         <v>256</v>
       </c>
       <c r="E103" s="3">
@@ -4392,7 +4396,7 @@
       <c r="B104" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="7" t="s">
         <v>259</v>
       </c>
       <c r="E104" s="3">
@@ -4406,7 +4410,7 @@
       <c r="B105" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="7" t="s">
         <v>262</v>
       </c>
       <c r="E105" s="3">
@@ -4420,7 +4424,7 @@
       <c r="B106" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E106" s="3">
@@ -4434,7 +4438,7 @@
       <c r="B107" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E107" s="3">
@@ -4448,7 +4452,7 @@
       <c r="B108" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E108" s="3">
@@ -4462,7 +4466,7 @@
       <c r="B109" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E109" s="3">
@@ -4476,7 +4480,7 @@
       <c r="B110" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E110" s="3">
@@ -4490,7 +4494,7 @@
       <c r="B111" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E111" s="3">
@@ -4504,7 +4508,7 @@
       <c r="B112" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E112" s="3">
@@ -4518,7 +4522,7 @@
       <c r="B113" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E113" s="3">
@@ -4532,7 +4536,7 @@
       <c r="B114" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="7" t="s">
         <v>275</v>
       </c>
       <c r="E114" s="3">
@@ -4546,7 +4550,7 @@
       <c r="B115" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E115" s="3">
@@ -4560,7 +4564,7 @@
       <c r="B116" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E116" s="3">
@@ -4574,7 +4578,7 @@
       <c r="B117" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E117" s="3">
@@ -4588,7 +4592,7 @@
       <c r="B118" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E118" s="3">
@@ -4602,7 +4606,7 @@
       <c r="B119" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E119" s="3">
@@ -4616,7 +4620,7 @@
       <c r="B120" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E120" s="3">
@@ -4630,7 +4634,7 @@
       <c r="B121" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E121" s="3">
@@ -4644,7 +4648,7 @@
       <c r="B122" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E122" s="3">
@@ -4658,7 +4662,7 @@
       <c r="B123" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E123" s="3">
@@ -4672,7 +4676,7 @@
       <c r="B124" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="7" t="s">
         <v>291</v>
       </c>
       <c r="E124" s="3">
@@ -4686,7 +4690,7 @@
       <c r="B125" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="7" t="s">
         <v>294</v>
       </c>
       <c r="E125" s="3">
@@ -4700,7 +4704,7 @@
       <c r="B126" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="7" t="s">
         <v>275</v>
       </c>
       <c r="E126" s="3">
@@ -4714,7 +4718,7 @@
       <c r="B127" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E127" s="3">
@@ -4728,7 +4732,7 @@
       <c r="B128" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E128" s="3">
@@ -4742,7 +4746,7 @@
       <c r="B129" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E129" s="3">
@@ -4756,7 +4760,7 @@
       <c r="B130" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E130" s="3">
@@ -4770,7 +4774,7 @@
       <c r="B131" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="7" t="s">
         <v>108</v>
       </c>
       <c r="E131" s="3">
@@ -4784,7 +4788,7 @@
       <c r="B132" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E132" s="3">
@@ -4798,7 +4802,7 @@
       <c r="B133" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E133" s="3">
@@ -4812,7 +4816,7 @@
       <c r="B134" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="7" t="s">
         <v>275</v>
       </c>
       <c r="E134" s="3">
@@ -4826,7 +4830,7 @@
       <c r="B135" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E135" s="3">
@@ -4840,7 +4844,7 @@
       <c r="B136" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="8" t="s">
         <v>135</v>
       </c>
       <c r="E136" s="3">
@@ -4854,7 +4858,7 @@
       <c r="B137" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E137" s="3">
@@ -4868,7 +4872,7 @@
       <c r="B138" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E138" s="3">
@@ -4882,7 +4886,7 @@
       <c r="B139" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E139" s="3">
@@ -4896,7 +4900,7 @@
       <c r="B140" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="7" t="s">
         <v>311</v>
       </c>
       <c r="E140" s="3">
@@ -4910,7 +4914,7 @@
       <c r="B141" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="7" t="s">
         <v>314</v>
       </c>
       <c r="E141" s="3">
@@ -4924,7 +4928,7 @@
       <c r="B142" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="7" t="s">
         <v>275</v>
       </c>
       <c r="E142" s="3">
@@ -4938,7 +4942,7 @@
       <c r="B143" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E143" s="3">
@@ -4952,7 +4956,7 @@
       <c r="B144" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E144" s="3">
@@ -4966,7 +4970,7 @@
       <c r="B145" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E145" s="3">
@@ -4980,7 +4984,7 @@
       <c r="B146" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="7" t="s">
         <v>321</v>
       </c>
       <c r="E146" s="3">
@@ -4994,7 +4998,7 @@
       <c r="B147" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="7" t="s">
         <v>108</v>
       </c>
       <c r="E147" s="3">
@@ -5008,7 +5012,7 @@
       <c r="B148" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E148" s="3">
@@ -5022,7 +5026,7 @@
       <c r="B149" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E149" s="3">
@@ -5036,7 +5040,7 @@
       <c r="B150" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E150" s="3">
@@ -5050,7 +5054,7 @@
       <c r="B151" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E151" s="3">
@@ -5064,7 +5068,7 @@
       <c r="B152" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="8" t="s">
         <v>135</v>
       </c>
       <c r="E152" s="3">
@@ -5078,7 +5082,7 @@
       <c r="B153" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E153" s="3">
@@ -5092,7 +5096,7 @@
       <c r="B154" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="7" t="s">
         <v>331</v>
       </c>
       <c r="E154" s="3">
@@ -5106,7 +5110,7 @@
       <c r="B155" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="7" t="s">
         <v>334</v>
       </c>
       <c r="E155" s="3">
@@ -5120,7 +5124,7 @@
       <c r="B156" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="7" t="s">
         <v>337</v>
       </c>
       <c r="E156" s="3">
@@ -5134,7 +5138,7 @@
       <c r="B157" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="7" t="s">
         <v>340</v>
       </c>
       <c r="E157" s="3">
@@ -5148,7 +5152,7 @@
       <c r="B158" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="7" t="s">
         <v>337</v>
       </c>
       <c r="E158" s="3">
@@ -5162,7 +5166,7 @@
       <c r="B159" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="7" t="s">
         <v>340</v>
       </c>
       <c r="E159" s="3">
@@ -5176,7 +5180,7 @@
       <c r="B160" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="7" t="s">
         <v>331</v>
       </c>
       <c r="E160" s="3">
@@ -5190,7 +5194,7 @@
       <c r="B161" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="7" t="s">
         <v>334</v>
       </c>
       <c r="E161" s="3">
@@ -5204,7 +5208,7 @@
       <c r="B162" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="7" t="s">
         <v>337</v>
       </c>
       <c r="E162" s="3">
@@ -5218,7 +5222,7 @@
       <c r="B163" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="7" t="s">
         <v>340</v>
       </c>
       <c r="E163" s="3">
@@ -5232,7 +5236,7 @@
       <c r="B164" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E164" s="3">
@@ -5246,7 +5250,7 @@
       <c r="B165" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E165" s="3">
@@ -5260,7 +5264,7 @@
       <c r="B166" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E166" s="3">
@@ -5274,7 +5278,7 @@
       <c r="B167" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="7" t="s">
         <v>353</v>
       </c>
       <c r="E167" s="3">
@@ -5288,7 +5292,7 @@
       <c r="B168" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E168" s="3">
@@ -5302,7 +5306,7 @@
       <c r="B169" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="7" t="s">
         <v>356</v>
       </c>
       <c r="E169" s="3">
@@ -5316,7 +5320,7 @@
       <c r="B170" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E170" s="3">
@@ -5330,7 +5334,7 @@
       <c r="B171" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="7" t="s">
         <v>359</v>
       </c>
       <c r="E171" s="3">
@@ -5344,7 +5348,7 @@
       <c r="B172" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E172" s="3">
@@ -5358,7 +5362,7 @@
       <c r="B173" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="7" t="s">
         <v>362</v>
       </c>
       <c r="E173" s="3">
@@ -5372,7 +5376,7 @@
       <c r="B174" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E174" s="3">
@@ -5386,7 +5390,7 @@
       <c r="B175" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="7" t="s">
         <v>365</v>
       </c>
       <c r="E175" s="3">
@@ -5400,7 +5404,7 @@
       <c r="B176" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E176" s="3">
@@ -5414,7 +5418,7 @@
       <c r="B177" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="7" t="s">
         <v>368</v>
       </c>
       <c r="E177" s="3">
@@ -5428,7 +5432,7 @@
       <c r="B178" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E178" s="3">
@@ -5442,7 +5446,7 @@
       <c r="B179" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="7" t="s">
         <v>371</v>
       </c>
       <c r="E179" s="3">
@@ -5456,7 +5460,7 @@
       <c r="B180" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E180" s="3">
@@ -5470,7 +5474,7 @@
       <c r="B181" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="7" t="s">
         <v>374</v>
       </c>
       <c r="E181" s="3">
@@ -5484,7 +5488,7 @@
       <c r="B182" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E182" s="3">
@@ -5498,7 +5502,7 @@
       <c r="B183" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="7" t="s">
         <v>377</v>
       </c>
       <c r="E183" s="3">
@@ -5512,7 +5516,7 @@
       <c r="B184" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E184" s="3">
@@ -5526,7 +5530,7 @@
       <c r="B185" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="7" t="s">
         <v>380</v>
       </c>
       <c r="E185" s="3">
@@ -5540,7 +5544,7 @@
       <c r="B186" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E186" s="3">
@@ -5554,7 +5558,7 @@
       <c r="B187" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="7" t="s">
         <v>383</v>
       </c>
       <c r="E187" s="3">
@@ -5568,7 +5572,7 @@
       <c r="B188" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E188" s="3">
@@ -5582,7 +5586,7 @@
       <c r="B189" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="7" t="s">
         <v>386</v>
       </c>
       <c r="E189" s="3">
@@ -5596,7 +5600,7 @@
       <c r="B190" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E190" s="3">
@@ -5610,7 +5614,7 @@
       <c r="B191" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="7" t="s">
         <v>389</v>
       </c>
       <c r="E191" s="3">
@@ -5624,7 +5628,7 @@
       <c r="B192" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E192" s="3">
@@ -5638,7 +5642,7 @@
       <c r="B193" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="7" t="s">
         <v>392</v>
       </c>
       <c r="E193" s="3">
@@ -5652,7 +5656,7 @@
       <c r="B194" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E194" s="3">
@@ -5666,7 +5670,7 @@
       <c r="B195" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="7" t="s">
         <v>395</v>
       </c>
       <c r="E195" s="3">
@@ -5680,7 +5684,7 @@
       <c r="B196" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E196" s="3">
@@ -5694,7 +5698,7 @@
       <c r="B197" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="7" t="s">
         <v>398</v>
       </c>
       <c r="E197" s="3">
@@ -5708,7 +5712,7 @@
       <c r="B198" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E198" s="3">
@@ -5722,7 +5726,7 @@
       <c r="B199" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="7" t="s">
         <v>401</v>
       </c>
       <c r="E199" s="3">
@@ -5736,7 +5740,7 @@
       <c r="B200" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E200" s="3">
@@ -5750,7 +5754,7 @@
       <c r="B201" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="7" t="s">
         <v>120</v>
       </c>
       <c r="E201" s="3">
@@ -5764,7 +5768,7 @@
       <c r="B202" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" s="7" t="s">
         <v>406</v>
       </c>
       <c r="E202" s="3">
@@ -5778,7 +5782,7 @@
       <c r="B203" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E203" s="3">
@@ -5792,7 +5796,7 @@
       <c r="B204" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E204" s="3">
@@ -5806,7 +5810,7 @@
       <c r="B205" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="7" t="s">
         <v>353</v>
       </c>
       <c r="E205" s="3">
@@ -5820,7 +5824,7 @@
       <c r="B206" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E206" s="3">
@@ -5834,7 +5838,7 @@
       <c r="B207" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="7" t="s">
         <v>356</v>
       </c>
       <c r="E207" s="3">
@@ -5848,7 +5852,7 @@
       <c r="B208" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E208" s="3">
@@ -5862,7 +5866,7 @@
       <c r="B209" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="C209" s="7" t="s">
         <v>359</v>
       </c>
       <c r="E209" s="3">
@@ -5876,7 +5880,7 @@
       <c r="B210" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E210" s="3">
@@ -5890,7 +5894,7 @@
       <c r="B211" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="7" t="s">
         <v>362</v>
       </c>
       <c r="E211" s="3">
@@ -5904,7 +5908,7 @@
       <c r="B212" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E212" s="3">
@@ -5918,7 +5922,7 @@
       <c r="B213" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="7" t="s">
         <v>365</v>
       </c>
       <c r="E213" s="3">
@@ -5932,7 +5936,7 @@
       <c r="B214" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E214" s="3">
@@ -5946,7 +5950,7 @@
       <c r="B215" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="7" t="s">
         <v>368</v>
       </c>
       <c r="E215" s="3">
@@ -5960,7 +5964,7 @@
       <c r="B216" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E216" s="3">
@@ -5974,7 +5978,7 @@
       <c r="B217" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="7" t="s">
         <v>371</v>
       </c>
       <c r="E217" s="3">
@@ -5988,7 +5992,7 @@
       <c r="B218" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E218" s="3">
@@ -6002,7 +6006,7 @@
       <c r="B219" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="C219" s="7" t="s">
         <v>374</v>
       </c>
       <c r="E219" s="3">
@@ -6016,7 +6020,7 @@
       <c r="B220" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E220" s="3">
@@ -6030,7 +6034,7 @@
       <c r="B221" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" s="7" t="s">
         <v>377</v>
       </c>
       <c r="E221" s="3">
@@ -6044,7 +6048,7 @@
       <c r="B222" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E222" s="3">
@@ -6058,7 +6062,7 @@
       <c r="B223" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" s="7" t="s">
         <v>380</v>
       </c>
       <c r="E223" s="3">
@@ -6072,7 +6076,7 @@
       <c r="B224" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E224" s="3">
@@ -6086,7 +6090,7 @@
       <c r="B225" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C225" s="7" t="s">
         <v>383</v>
       </c>
       <c r="E225" s="3">
@@ -6100,7 +6104,7 @@
       <c r="B226" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C226" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E226" s="3">
@@ -6114,7 +6118,7 @@
       <c r="B227" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C227" s="7" t="s">
         <v>386</v>
       </c>
       <c r="E227" s="3">
@@ -6128,7 +6132,7 @@
       <c r="B228" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E228" s="3">
@@ -6142,7 +6146,7 @@
       <c r="B229" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C229" s="7" t="s">
         <v>389</v>
       </c>
       <c r="E229" s="3">
@@ -6156,7 +6160,7 @@
       <c r="B230" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C230" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E230" s="3">
@@ -6170,7 +6174,7 @@
       <c r="B231" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="7" t="s">
         <v>392</v>
       </c>
       <c r="E231" s="3">
@@ -6184,7 +6188,7 @@
       <c r="B232" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="C232" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E232" s="3">
@@ -6198,7 +6202,7 @@
       <c r="B233" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C233" s="7" t="s">
         <v>395</v>
       </c>
       <c r="E233" s="3">
@@ -6212,7 +6216,7 @@
       <c r="B234" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C234" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E234" s="3">
@@ -6226,7 +6230,7 @@
       <c r="B235" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C235" s="7" t="s">
         <v>398</v>
       </c>
       <c r="E235" s="3">
@@ -6240,7 +6244,7 @@
       <c r="B236" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C236" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E236" s="3">
@@ -6254,7 +6258,7 @@
       <c r="B237" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="7" t="s">
         <v>401</v>
       </c>
       <c r="E237" s="3">
@@ -6268,7 +6272,7 @@
       <c r="B238" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="C238" s="7" t="s">
         <v>406</v>
       </c>
       <c r="E238" s="3">
@@ -6282,7 +6286,7 @@
       <c r="B239" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="C239" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E239" s="3">
@@ -6296,7 +6300,7 @@
       <c r="B240" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E240" s="3">
@@ -6310,7 +6314,7 @@
       <c r="B241" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C241" s="5" t="s">
+      <c r="C241" s="7" t="s">
         <v>120</v>
       </c>
       <c r="E241" s="3">
@@ -6324,7 +6328,7 @@
       <c r="B242" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C242" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E242" s="3">
@@ -6338,7 +6342,7 @@
       <c r="B243" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C243" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E243" s="3">
@@ -6352,7 +6356,7 @@
       <c r="B244" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C244" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E244" s="3">
@@ -6366,7 +6370,7 @@
       <c r="B245" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E245" s="3">
@@ -6380,7 +6384,7 @@
       <c r="B246" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C246" s="6" t="s">
+      <c r="C246" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E246" s="3">
@@ -6394,7 +6398,7 @@
       <c r="B247" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C247" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E247" s="3">
@@ -6408,7 +6412,7 @@
       <c r="B248" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C248" s="5" t="s">
+      <c r="C248" s="7" t="s">
         <v>454</v>
       </c>
       <c r="E248" s="3">
@@ -6422,7 +6426,7 @@
       <c r="B249" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C249" s="5" t="s">
+      <c r="C249" s="7" t="s">
         <v>457</v>
       </c>
       <c r="E249" s="3">
@@ -6436,7 +6440,7 @@
       <c r="B250" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C250" s="5" t="s">
+      <c r="C250" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E250" s="3">
@@ -6450,7 +6454,7 @@
       <c r="B251" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C251" s="5" t="s">
+      <c r="C251" s="7" t="s">
         <v>220</v>
       </c>
       <c r="E251" s="3">
@@ -6464,7 +6468,7 @@
       <c r="B252" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C252" s="8" t="s">
         <v>462</v>
       </c>
       <c r="E252" s="3">
@@ -6478,7 +6482,7 @@
       <c r="B253" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="C253" s="7" t="s">
         <v>465</v>
       </c>
       <c r="E253" s="3">
@@ -6492,7 +6496,7 @@
       <c r="B254" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="C254" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E254" s="3">
@@ -6506,7 +6510,7 @@
       <c r="B255" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C255" s="5" t="s">
+      <c r="C255" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E255" s="3">
@@ -6520,7 +6524,7 @@
       <c r="B256" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C256" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E256" s="3">
@@ -6534,7 +6538,7 @@
       <c r="B257" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C257" s="5" t="s">
+      <c r="C257" s="7" t="s">
         <v>220</v>
       </c>
       <c r="E257" s="3">
@@ -6548,7 +6552,7 @@
       <c r="B258" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="C258" s="7" t="s">
         <v>472</v>
       </c>
       <c r="E258" s="3">
@@ -6562,7 +6566,7 @@
       <c r="B259" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" s="7" t="s">
         <v>215</v>
       </c>
       <c r="E259" s="3">
@@ -6576,7 +6580,7 @@
       <c r="B260" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C260" s="6" t="s">
+      <c r="C260" s="8" t="s">
         <v>462</v>
       </c>
       <c r="E260" s="3">
@@ -6590,7 +6594,7 @@
       <c r="B261" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C261" s="5" t="s">
+      <c r="C261" s="7" t="s">
         <v>465</v>
       </c>
       <c r="E261" s="3">
@@ -6604,7 +6608,7 @@
       <c r="B262" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="C262" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E262" s="3">
@@ -6618,7 +6622,7 @@
       <c r="B263" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C263" s="5" t="s">
+      <c r="C263" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E263" s="3">
@@ -6632,7 +6636,7 @@
       <c r="B264" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C264" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E264" s="3">
@@ -6646,7 +6650,7 @@
       <c r="B265" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C265" s="5" t="s">
+      <c r="C265" s="7" t="s">
         <v>220</v>
       </c>
       <c r="E265" s="3">
@@ -6660,7 +6664,7 @@
       <c r="B266" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C266" s="8" t="s">
         <v>462</v>
       </c>
       <c r="E266" s="3">
@@ -6674,7 +6678,7 @@
       <c r="B267" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C267" s="7" t="s">
         <v>465</v>
       </c>
       <c r="E267" s="3">
@@ -6688,7 +6692,7 @@
       <c r="B268" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C268" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E268" s="3">
@@ -6702,7 +6706,7 @@
       <c r="B269" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C269" s="5" t="s">
+      <c r="C269" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E269" s="3">
@@ -6716,7 +6720,7 @@
       <c r="B270" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C270" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E270" s="3">
@@ -6730,7 +6734,7 @@
       <c r="B271" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C271" s="5" t="s">
+      <c r="C271" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E271" s="3">
@@ -6744,7 +6748,7 @@
       <c r="B272" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C272" s="5" t="s">
+      <c r="C272" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E272" s="3">
@@ -6758,7 +6762,7 @@
       <c r="B273" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C273" s="5" t="s">
+      <c r="C273" s="7" t="s">
         <v>220</v>
       </c>
       <c r="E273" s="3">
@@ -6772,7 +6776,7 @@
       <c r="B274" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C274" s="5" t="s">
+      <c r="C274" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E274" s="3">
@@ -6786,24 +6790,24 @@
       <c r="B275" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="C275" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E275" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="3" t="s">
+    <row r="276" s="5" customFormat="1">
+      <c r="A276" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C276" s="5" t="s">
+      <c r="C276" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E276" s="3">
+      <c r="E276" s="5">
         <v>276</v>
       </c>
     </row>
@@ -6814,7 +6818,7 @@
       <c r="B277" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C277" s="5" t="s">
+      <c r="C277" s="7" t="s">
         <v>495</v>
       </c>
       <c r="E277" s="3">
@@ -6828,7 +6832,7 @@
       <c r="B278" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C278" s="5" t="s">
+      <c r="C278" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E278" s="3">
@@ -6842,7 +6846,7 @@
       <c r="B279" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C279" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E279" s="3">
@@ -6856,7 +6860,7 @@
       <c r="B280" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C280" s="5" t="s">
+      <c r="C280" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E280" s="3">
@@ -6870,7 +6874,7 @@
       <c r="B281" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C281" s="5" t="s">
+      <c r="C281" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E281" s="3">
@@ -6884,7 +6888,7 @@
       <c r="B282" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C282" s="5" t="s">
+      <c r="C282" s="7" t="s">
         <v>502</v>
       </c>
       <c r="E282" s="3">
@@ -6898,7 +6902,7 @@
       <c r="B283" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C283" s="5" t="s">
+      <c r="C283" s="7" t="s">
         <v>238</v>
       </c>
       <c r="E283" s="3">
@@ -6912,7 +6916,7 @@
       <c r="B284" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C284" s="5" t="s">
+      <c r="C284" s="7" t="s">
         <v>505</v>
       </c>
       <c r="E284" s="3">
@@ -6926,7 +6930,7 @@
       <c r="B285" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C285" s="5" t="s">
+      <c r="C285" s="7" t="s">
         <v>508</v>
       </c>
       <c r="E285" s="3">
@@ -6940,7 +6944,7 @@
       <c r="B286" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C286" s="5" t="s">
+      <c r="C286" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E286" s="3">
@@ -6954,7 +6958,7 @@
       <c r="B287" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C287" s="5" t="s">
+      <c r="C287" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E287" s="3">
@@ -6968,7 +6972,7 @@
       <c r="B288" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C288" s="5" t="s">
+      <c r="C288" s="7" t="s">
         <v>513</v>
       </c>
       <c r="E288" s="3">
@@ -6982,7 +6986,7 @@
       <c r="B289" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C289" s="5" t="s">
+      <c r="C289" s="7" t="s">
         <v>516</v>
       </c>
       <c r="E289" s="3">
@@ -6996,7 +7000,7 @@
       <c r="B290" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C290" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E290" s="3">
@@ -7010,7 +7014,7 @@
       <c r="B291" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C291" s="5" t="s">
+      <c r="C291" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E291" s="3">
@@ -7024,7 +7028,7 @@
       <c r="B292" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C292" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E292" s="3">
@@ -7038,7 +7042,7 @@
       <c r="B293" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C293" s="5" t="s">
+      <c r="C293" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E293" s="3">
@@ -7052,7 +7056,7 @@
       <c r="B294" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C294" s="5" t="s">
+      <c r="C294" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E294" s="3">
@@ -7066,7 +7070,7 @@
       <c r="B295" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C295" s="5" t="s">
+      <c r="C295" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E295" s="3">
@@ -7080,7 +7084,7 @@
       <c r="B296" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C296" s="5" t="s">
+      <c r="C296" s="7" t="s">
         <v>513</v>
       </c>
       <c r="E296" s="3">
@@ -7094,7 +7098,7 @@
       <c r="B297" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C297" s="5" t="s">
+      <c r="C297" s="7" t="s">
         <v>516</v>
       </c>
       <c r="E297" s="3">
@@ -7108,7 +7112,7 @@
       <c r="B298" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C298" s="5" t="s">
+      <c r="C298" s="7" t="s">
         <v>531</v>
       </c>
       <c r="E298" s="3">
@@ -7122,7 +7126,7 @@
       <c r="B299" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C299" s="5" t="s">
+      <c r="C299" s="7" t="s">
         <v>256</v>
       </c>
       <c r="E299" s="3">
@@ -7136,7 +7140,7 @@
       <c r="B300" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C300" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E300" s="3">
@@ -7150,7 +7154,7 @@
       <c r="B301" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C301" s="5" t="s">
+      <c r="C301" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E301" s="3">
@@ -7164,7 +7168,7 @@
       <c r="B302" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C302" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E302" s="3">
@@ -7178,7 +7182,7 @@
       <c r="B303" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C303" s="5" t="s">
+      <c r="C303" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E303" s="3">
@@ -7192,7 +7196,7 @@
       <c r="B304" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C304" s="5" t="s">
+      <c r="C304" s="7" t="s">
         <v>513</v>
       </c>
       <c r="E304" s="3">
@@ -7206,7 +7210,7 @@
       <c r="B305" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C305" s="5" t="s">
+      <c r="C305" s="7" t="s">
         <v>516</v>
       </c>
       <c r="E305" s="3">
@@ -7220,7 +7224,7 @@
       <c r="B306" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C306" s="5" t="s">
+      <c r="C306" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E306" s="3">
@@ -7234,7 +7238,7 @@
       <c r="B307" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="C307" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E307" s="3">
@@ -7248,7 +7252,7 @@
       <c r="B308" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C308" s="6" t="s">
+      <c r="C308" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E308" s="3">
@@ -7262,7 +7266,7 @@
       <c r="B309" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C309" s="5" t="s">
+      <c r="C309" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E309" s="3">
@@ -7276,7 +7280,7 @@
       <c r="B310" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C310" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E310" s="3">
@@ -7290,7 +7294,7 @@
       <c r="B311" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C311" s="5" t="s">
+      <c r="C311" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E311" s="3">
@@ -7304,7 +7308,7 @@
       <c r="B312" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C312" s="6" t="s">
+      <c r="C312" s="8" t="s">
         <v>547</v>
       </c>
       <c r="E312" s="3">
@@ -7318,7 +7322,7 @@
       <c r="B313" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C313" s="5" t="s">
+      <c r="C313" s="7" t="s">
         <v>550</v>
       </c>
       <c r="E313" s="3">
@@ -7332,7 +7336,7 @@
       <c r="B314" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C314" s="6" t="s">
+      <c r="C314" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E314" s="3">
@@ -7346,7 +7350,7 @@
       <c r="B315" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C315" s="5" t="s">
+      <c r="C315" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E315" s="3">
@@ -7360,7 +7364,7 @@
       <c r="B316" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C316" s="6" t="s">
+      <c r="C316" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E316" s="3">
@@ -7374,7 +7378,7 @@
       <c r="B317" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C317" s="5" t="s">
+      <c r="C317" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E317" s="3">
@@ -7388,7 +7392,7 @@
       <c r="B318" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C318" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E318" s="3">
@@ -7402,7 +7406,7 @@
       <c r="B319" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C319" s="5" t="s">
+      <c r="C319" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E319" s="3">
@@ -7416,7 +7420,7 @@
       <c r="B320" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="C320" s="8" t="s">
         <v>559</v>
       </c>
       <c r="E320" s="3">
@@ -7430,7 +7434,7 @@
       <c r="B321" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C321" s="5" t="s">
+      <c r="C321" s="7" t="s">
         <v>262</v>
       </c>
       <c r="E321" s="3">
@@ -7444,7 +7448,7 @@
       <c r="B322" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C322" s="5" t="s">
+      <c r="C322" s="7" t="s">
         <v>563</v>
       </c>
       <c r="E322" s="3">
@@ -7458,7 +7462,7 @@
       <c r="B323" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C323" s="5" t="s">
+      <c r="C323" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E323" s="3">
@@ -7472,7 +7476,7 @@
       <c r="B324" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C324" s="5" t="s">
+      <c r="C324" s="7" t="s">
         <v>567</v>
       </c>
       <c r="E324" s="3">
@@ -7486,7 +7490,7 @@
       <c r="B325" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C325" s="5" t="s">
+      <c r="C325" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E325" s="3">
@@ -7500,7 +7504,7 @@
       <c r="B326" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C326" s="5" t="s">
+      <c r="C326" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E326" s="3">
@@ -7514,7 +7518,7 @@
       <c r="B327" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C327" s="5" t="s">
+      <c r="C327" s="7" t="s">
         <v>572</v>
       </c>
       <c r="E327" s="3">
@@ -7528,7 +7532,7 @@
       <c r="B328" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="C328" s="7" t="s">
         <v>575</v>
       </c>
       <c r="E328" s="3">
@@ -7542,7 +7546,7 @@
       <c r="B329" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C329" s="5" t="s">
+      <c r="C329" s="7" t="s">
         <v>575</v>
       </c>
       <c r="E329" s="3">
@@ -7556,7 +7560,7 @@
       <c r="B330" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C330" s="5" t="s">
+      <c r="C330" s="7" t="s">
         <v>579</v>
       </c>
       <c r="E330" s="3">
@@ -7570,7 +7574,7 @@
       <c r="B331" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C331" s="5" t="s">
+      <c r="C331" s="7" t="s">
         <v>575</v>
       </c>
       <c r="E331" s="3">
@@ -7584,7 +7588,7 @@
       <c r="B332" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C332" s="5" t="s">
+      <c r="C332" s="7" t="s">
         <v>583</v>
       </c>
       <c r="E332" s="3">
@@ -7598,7 +7602,7 @@
       <c r="B333" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C333" s="5" t="s">
+      <c r="C333" s="7" t="s">
         <v>586</v>
       </c>
       <c r="E333" s="3">
@@ -7612,7 +7616,7 @@
       <c r="B334" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C334" s="8" t="s">
         <v>589</v>
       </c>
       <c r="E334" s="3">
@@ -7626,7 +7630,7 @@
       <c r="B335" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C335" s="5" t="s">
+      <c r="C335" s="7" t="s">
         <v>592</v>
       </c>
       <c r="E335" s="3">
@@ -7640,7 +7644,7 @@
       <c r="B336" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="C336" s="7" t="s">
         <v>586</v>
       </c>
       <c r="E336" s="3">
@@ -7654,7 +7658,7 @@
       <c r="B337" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C337" s="5" t="s">
+      <c r="C337" s="7" t="s">
         <v>596</v>
       </c>
       <c r="E337" s="3">
@@ -7668,7 +7672,7 @@
       <c r="B338" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C338" s="5" t="s">
+      <c r="C338" s="7" t="s">
         <v>586</v>
       </c>
       <c r="E338" s="3">
@@ -7682,7 +7686,7 @@
       <c r="B339" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C339" s="6" t="s">
+      <c r="C339" s="8" t="s">
         <v>600</v>
       </c>
       <c r="E339" s="3">
@@ -7696,7 +7700,7 @@
       <c r="B340" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C340" s="5" t="s">
+      <c r="C340" s="7" t="s">
         <v>592</v>
       </c>
       <c r="E340" s="3">
@@ -7710,7 +7714,7 @@
       <c r="B341" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C341" s="5" t="s">
+      <c r="C341" s="7" t="s">
         <v>586</v>
       </c>
       <c r="E341" s="3">
@@ -7724,7 +7728,7 @@
       <c r="B342" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C342" s="5" t="s">
+      <c r="C342" s="7" t="s">
         <v>605</v>
       </c>
       <c r="E342" s="3">
@@ -7738,7 +7742,7 @@
       <c r="B343" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C343" s="5" t="s">
+      <c r="C343" s="7" t="s">
         <v>586</v>
       </c>
       <c r="E343" s="3">
@@ -7752,7 +7756,7 @@
       <c r="B344" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C344" s="6" t="s">
+      <c r="C344" s="8" t="s">
         <v>609</v>
       </c>
       <c r="E344" s="3">
@@ -7766,7 +7770,7 @@
       <c r="B345" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C345" s="5" t="s">
+      <c r="C345" s="7" t="s">
         <v>592</v>
       </c>
       <c r="E345" s="3">
@@ -7780,7 +7784,7 @@
       <c r="B346" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C346" s="5" t="s">
+      <c r="C346" s="7" t="s">
         <v>586</v>
       </c>
       <c r="E346" s="3">
@@ -7794,7 +7798,7 @@
       <c r="B347" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C347" s="5" t="s">
+      <c r="C347" s="7" t="s">
         <v>614</v>
       </c>
       <c r="E347" s="3">
@@ -7808,7 +7812,7 @@
       <c r="B348" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C348" s="5" t="s">
+      <c r="C348" s="7" t="s">
         <v>617</v>
       </c>
       <c r="E348" s="3">
@@ -7822,7 +7826,7 @@
       <c r="B349" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C349" s="5" t="s">
+      <c r="C349" s="7" t="s">
         <v>620</v>
       </c>
       <c r="E349" s="3">
@@ -7836,7 +7840,7 @@
       <c r="B350" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C350" s="5" t="s">
+      <c r="C350" s="7" t="s">
         <v>623</v>
       </c>
       <c r="E350" s="3">
@@ -7850,7 +7854,7 @@
       <c r="B351" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C351" s="5" t="s">
+      <c r="C351" s="7" t="s">
         <v>626</v>
       </c>
       <c r="E351" s="3">
@@ -7864,7 +7868,7 @@
       <c r="B352" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C352" s="5" t="s">
+      <c r="C352" s="7" t="s">
         <v>629</v>
       </c>
       <c r="E352" s="3">
@@ -7878,7 +7882,7 @@
       <c r="B353" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C353" s="5" t="s">
+      <c r="C353" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E353" s="3">
@@ -7892,7 +7896,7 @@
       <c r="B354" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C354" s="5" t="s">
+      <c r="C354" s="7" t="s">
         <v>635</v>
       </c>
       <c r="E354" s="3">
@@ -7906,7 +7910,7 @@
       <c r="B355" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C355" s="5" t="s">
+      <c r="C355" s="7" t="s">
         <v>638</v>
       </c>
       <c r="E355" s="3">
@@ -7920,7 +7924,7 @@
       <c r="B356" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C356" s="5" t="s">
+      <c r="C356" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E356" s="3">
@@ -7934,7 +7938,7 @@
       <c r="B357" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C357" s="5" t="s">
+      <c r="C357" s="7" t="s">
         <v>629</v>
       </c>
       <c r="E357" s="3">
@@ -7948,7 +7952,7 @@
       <c r="B358" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C358" s="5" t="s">
+      <c r="C358" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E358" s="3">
@@ -7962,7 +7966,7 @@
       <c r="B359" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C359" s="5" t="s">
+      <c r="C359" s="7" t="s">
         <v>644</v>
       </c>
       <c r="E359" s="3">
@@ -7976,7 +7980,7 @@
       <c r="B360" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C360" s="5" t="s">
+      <c r="C360" s="7" t="s">
         <v>638</v>
       </c>
       <c r="E360" s="3">
@@ -7990,7 +7994,7 @@
       <c r="B361" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C361" s="5" t="s">
+      <c r="C361" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E361" s="3">
@@ -8004,7 +8008,7 @@
       <c r="B362" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C362" s="5" t="s">
+      <c r="C362" s="7" t="s">
         <v>629</v>
       </c>
       <c r="E362" s="3">
@@ -8018,7 +8022,7 @@
       <c r="B363" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C363" s="5" t="s">
+      <c r="C363" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E363" s="3">
@@ -8032,7 +8036,7 @@
       <c r="B364" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C364" s="5" t="s">
+      <c r="C364" s="7" t="s">
         <v>651</v>
       </c>
       <c r="E364" s="3">
@@ -8046,7 +8050,7 @@
       <c r="B365" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C365" s="5" t="s">
+      <c r="C365" s="7" t="s">
         <v>638</v>
       </c>
       <c r="E365" s="3">
@@ -8060,7 +8064,7 @@
       <c r="B366" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C366" s="5" t="s">
+      <c r="C366" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E366" s="3">
@@ -8074,7 +8078,7 @@
       <c r="B367" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C367" s="5" t="s">
+      <c r="C367" s="7" t="s">
         <v>656</v>
       </c>
       <c r="E367" s="3">
@@ -8088,7 +8092,7 @@
       <c r="B368" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="C368" s="7" t="s">
         <v>659</v>
       </c>
       <c r="E368" s="3">
@@ -8102,7 +8106,7 @@
       <c r="B369" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="C369" s="5" t="s">
+      <c r="C369" s="7" t="s">
         <v>662</v>
       </c>
       <c r="E369" s="3">
@@ -8116,7 +8120,7 @@
       <c r="B370" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C370" s="5" t="s">
+      <c r="C370" s="7" t="s">
         <v>665</v>
       </c>
       <c r="E370" s="3">
@@ -8130,7 +8134,7 @@
       <c r="B371" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C371" s="5" t="s">
+      <c r="C371" s="7" t="s">
         <v>659</v>
       </c>
       <c r="E371" s="3">
@@ -8144,7 +8148,7 @@
       <c r="B372" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C372" s="5" t="s">
+      <c r="C372" s="7" t="s">
         <v>669</v>
       </c>
       <c r="E372" s="3">
@@ -8158,7 +8162,7 @@
       <c r="B373" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C373" s="5" t="s">
+      <c r="C373" s="7" t="s">
         <v>659</v>
       </c>
       <c r="E373" s="3">
@@ -8172,7 +8176,7 @@
       <c r="B374" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C374" s="5" t="s">
+      <c r="C374" s="7" t="s">
         <v>673</v>
       </c>
       <c r="E374" s="3">
@@ -8186,7 +8190,7 @@
       <c r="B375" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C375" s="5" t="s">
+      <c r="C375" s="7" t="s">
         <v>665</v>
       </c>
       <c r="E375" s="3">
@@ -8200,7 +8204,7 @@
       <c r="B376" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C376" s="5" t="s">
+      <c r="C376" s="7" t="s">
         <v>659</v>
       </c>
       <c r="E376" s="3">
@@ -8214,7 +8218,7 @@
       <c r="B377" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C377" s="5" t="s">
+      <c r="C377" s="7" t="s">
         <v>678</v>
       </c>
       <c r="E377" s="3">
@@ -8228,7 +8232,7 @@
       <c r="B378" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C378" s="5" t="s">
+      <c r="C378" s="7" t="s">
         <v>681</v>
       </c>
       <c r="E378" s="3">
@@ -8242,7 +8246,7 @@
       <c r="B379" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C379" s="5" t="s">
+      <c r="C379" s="7" t="s">
         <v>206</v>
       </c>
       <c r="E379" s="3">
@@ -8256,7 +8260,7 @@
       <c r="B380" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C380" s="5" t="s">
+      <c r="C380" s="7" t="s">
         <v>681</v>
       </c>
       <c r="E380" s="3">
@@ -8270,7 +8274,7 @@
       <c r="B381" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C381" s="5" t="s">
+      <c r="C381" s="7" t="s">
         <v>686</v>
       </c>
       <c r="E381" s="3">
@@ -8284,7 +8288,7 @@
       <c r="B382" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C382" s="5" t="s">
+      <c r="C382" s="7" t="s">
         <v>689</v>
       </c>
       <c r="E382" s="3">
@@ -8298,7 +8302,7 @@
       <c r="B383" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C383" s="5" t="s">
+      <c r="C383" s="7" t="s">
         <v>681</v>
       </c>
       <c r="E383" s="3">
@@ -8312,7 +8316,7 @@
       <c r="B384" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C384" s="5" t="s">
+      <c r="C384" s="7" t="s">
         <v>206</v>
       </c>
       <c r="E384" s="3">
@@ -8326,7 +8330,7 @@
       <c r="B385" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C385" s="5" t="s">
+      <c r="C385" s="7" t="s">
         <v>681</v>
       </c>
       <c r="E385" s="3">
@@ -8340,7 +8344,7 @@
       <c r="B386" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C386" s="5" t="s">
+      <c r="C386" s="7" t="s">
         <v>695</v>
       </c>
       <c r="E386" s="3">
@@ -8354,7 +8358,7 @@
       <c r="B387" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C387" s="5" t="s">
+      <c r="C387" s="7" t="s">
         <v>698</v>
       </c>
       <c r="E387" s="3">
@@ -8368,7 +8372,7 @@
       <c r="B388" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C388" s="5" t="s">
+      <c r="C388" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E388" s="3">
@@ -8382,7 +8386,7 @@
       <c r="B389" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C389" s="5" t="s">
+      <c r="C389" s="7" t="s">
         <v>702</v>
       </c>
       <c r="E389" s="3">
@@ -8396,7 +8400,7 @@
       <c r="B390" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C390" s="5" t="s">
+      <c r="C390" s="7" t="s">
         <v>275</v>
       </c>
       <c r="E390" s="3">
@@ -8410,7 +8414,7 @@
       <c r="B391" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C391" s="5" t="s">
+      <c r="C391" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E391" s="3">
@@ -8424,7 +8428,7 @@
       <c r="B392" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C392" s="5" t="s">
+      <c r="C392" s="7" t="s">
         <v>698</v>
       </c>
       <c r="E392" s="3">
@@ -8438,7 +8442,7 @@
       <c r="B393" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C393" s="5" t="s">
+      <c r="C393" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E393" s="3">
@@ -8452,7 +8456,7 @@
       <c r="B394" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C394" s="5" t="s">
+      <c r="C394" s="7" t="s">
         <v>709</v>
       </c>
       <c r="E394" s="3">
@@ -8466,7 +8470,7 @@
       <c r="B395" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C395" s="5" t="s">
+      <c r="C395" s="7" t="s">
         <v>275</v>
       </c>
       <c r="E395" s="3">
@@ -8480,7 +8484,7 @@
       <c r="B396" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C396" s="5" t="s">
+      <c r="C396" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E396" s="3">
@@ -8494,7 +8498,7 @@
       <c r="B397" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="C397" s="5" t="s">
+      <c r="C397" s="7" t="s">
         <v>714</v>
       </c>
       <c r="E397" s="3">
@@ -8508,7 +8512,7 @@
       <c r="B398" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C398" s="5" t="s">
+      <c r="C398" s="7" t="s">
         <v>717</v>
       </c>
       <c r="E398" s="3">
@@ -8522,7 +8526,7 @@
       <c r="B399" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C399" s="6" t="s">
+      <c r="C399" s="8" t="s">
         <v>720</v>
       </c>
       <c r="E399" s="3">
@@ -8536,7 +8540,7 @@
       <c r="B400" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="C400" s="5" t="s">
+      <c r="C400" s="7" t="s">
         <v>723</v>
       </c>
       <c r="E400" s="3">
@@ -8550,7 +8554,7 @@
       <c r="B401" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C401" s="5" t="s">
+      <c r="C401" s="7" t="s">
         <v>717</v>
       </c>
       <c r="E401" s="3">
@@ -8564,7 +8568,7 @@
       <c r="B402" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C402" s="5" t="s">
+      <c r="C402" s="7" t="s">
         <v>727</v>
       </c>
       <c r="E402" s="3">
@@ -8578,7 +8582,7 @@
       <c r="B403" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C403" s="5" t="s">
+      <c r="C403" s="7" t="s">
         <v>717</v>
       </c>
       <c r="E403" s="3">
@@ -8592,7 +8596,7 @@
       <c r="B404" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="C404" s="6" t="s">
+      <c r="C404" s="8" t="s">
         <v>731</v>
       </c>
       <c r="E404" s="3">
@@ -8606,7 +8610,7 @@
       <c r="B405" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="C405" s="5" t="s">
+      <c r="C405" s="7" t="s">
         <v>734</v>
       </c>
       <c r="E405" s="3">
@@ -8620,7 +8624,7 @@
       <c r="B406" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C406" s="5" t="s">
+      <c r="C406" s="7" t="s">
         <v>717</v>
       </c>
       <c r="E406" s="3">
@@ -8634,7 +8638,7 @@
       <c r="B407" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C407" s="5" t="s">
+      <c r="C407" s="7" t="s">
         <v>738</v>
       </c>
       <c r="E407" s="3">
@@ -8648,7 +8652,7 @@
       <c r="B408" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C408" s="5" t="s">
+      <c r="C408" s="7" t="s">
         <v>741</v>
       </c>
       <c r="E408" s="3">
@@ -8662,7 +8666,7 @@
       <c r="B409" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C409" s="5" t="s">
+      <c r="C409" s="7" t="s">
         <v>744</v>
       </c>
       <c r="E409" s="3">
@@ -8676,7 +8680,7 @@
       <c r="B410" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C410" s="5" t="s">
+      <c r="C410" s="7" t="s">
         <v>747</v>
       </c>
       <c r="E410" s="3">
@@ -8690,7 +8694,7 @@
       <c r="B411" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C411" s="5" t="s">
+      <c r="C411" s="7" t="s">
         <v>741</v>
       </c>
       <c r="E411" s="3">
@@ -8704,7 +8708,7 @@
       <c r="B412" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C412" s="5" t="s">
+      <c r="C412" s="7" t="s">
         <v>751</v>
       </c>
       <c r="E412" s="3">
@@ -8718,7 +8722,7 @@
       <c r="B413" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C413" s="5" t="s">
+      <c r="C413" s="7" t="s">
         <v>741</v>
       </c>
       <c r="E413" s="3">
@@ -8732,7 +8736,7 @@
       <c r="B414" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C414" s="5" t="s">
+      <c r="C414" s="7" t="s">
         <v>755</v>
       </c>
       <c r="E414" s="3">
@@ -8746,7 +8750,7 @@
       <c r="B415" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="C415" s="5" t="s">
+      <c r="C415" s="7" t="s">
         <v>758</v>
       </c>
       <c r="E415" s="3">
@@ -8760,7 +8764,7 @@
       <c r="B416" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C416" s="5" t="s">
+      <c r="C416" s="7" t="s">
         <v>741</v>
       </c>
       <c r="E416" s="3">
@@ -8774,7 +8778,7 @@
       <c r="B417" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C417" s="6" t="s">
+      <c r="C417" s="8" t="s">
         <v>762</v>
       </c>
       <c r="E417" s="3">
@@ -8788,7 +8792,7 @@
       <c r="B418" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C418" s="5" t="s">
+      <c r="C418" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E418" s="3">
@@ -8802,7 +8806,7 @@
       <c r="B419" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="C419" s="5" t="s">
+      <c r="C419" s="7" t="s">
         <v>766</v>
       </c>
       <c r="E419" s="3">
@@ -8816,7 +8820,7 @@
       <c r="B420" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C420" s="5" t="s">
+      <c r="C420" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E420" s="3">
@@ -8830,7 +8834,7 @@
       <c r="B421" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C421" s="5" t="s">
+      <c r="C421" s="7" t="s">
         <v>769</v>
       </c>
       <c r="E421" s="3">
@@ -8844,7 +8848,7 @@
       <c r="B422" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C422" s="5" t="s">
+      <c r="C422" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E422" s="3">
@@ -8858,7 +8862,7 @@
       <c r="B423" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C423" s="5" t="s">
+      <c r="C423" s="7" t="s">
         <v>772</v>
       </c>
       <c r="E423" s="3">
@@ -8872,7 +8876,7 @@
       <c r="B424" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C424" s="5" t="s">
+      <c r="C424" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E424" s="3">
@@ -8886,7 +8890,7 @@
       <c r="B425" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C425" s="5" t="s">
+      <c r="C425" s="7" t="s">
         <v>775</v>
       </c>
       <c r="E425" s="3">
@@ -8900,7 +8904,7 @@
       <c r="B426" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="C426" s="6" t="s">
+      <c r="C426" s="8" t="s">
         <v>778</v>
       </c>
       <c r="E426" s="3">
@@ -8914,7 +8918,7 @@
       <c r="B427" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C427" s="5" t="s">
+      <c r="C427" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E427" s="3">
@@ -8928,7 +8932,7 @@
       <c r="B428" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="C428" s="5" t="s">
+      <c r="C428" s="7" t="s">
         <v>781</v>
       </c>
       <c r="E428" s="3">
@@ -8942,7 +8946,7 @@
       <c r="B429" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C429" s="5" t="s">
+      <c r="C429" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E429" s="3">
@@ -8956,7 +8960,7 @@
       <c r="B430" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="C430" s="5" t="s">
+      <c r="C430" s="7" t="s">
         <v>784</v>
       </c>
       <c r="E430" s="3">
@@ -8970,7 +8974,7 @@
       <c r="B431" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C431" s="5" t="s">
+      <c r="C431" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E431" s="3">
@@ -8984,7 +8988,7 @@
       <c r="B432" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="C432" s="5" t="s">
+      <c r="C432" s="7" t="s">
         <v>787</v>
       </c>
       <c r="E432" s="3">
@@ -8998,7 +9002,7 @@
       <c r="B433" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C433" s="5" t="s">
+      <c r="C433" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E433" s="3">
@@ -9012,7 +9016,7 @@
       <c r="B434" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="C434" s="5" t="s">
+      <c r="C434" s="7" t="s">
         <v>790</v>
       </c>
       <c r="E434" s="3">
@@ -9026,7 +9030,7 @@
       <c r="B435" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C435" s="6" t="s">
+      <c r="C435" s="8" t="s">
         <v>793</v>
       </c>
       <c r="E435" s="3">
@@ -9040,7 +9044,7 @@
       <c r="B436" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C436" s="5" t="s">
+      <c r="C436" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E436" s="3">
@@ -9054,7 +9058,7 @@
       <c r="B437" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="C437" s="5" t="s">
+      <c r="C437" s="7" t="s">
         <v>796</v>
       </c>
       <c r="E437" s="3">
@@ -9068,7 +9072,7 @@
       <c r="B438" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C438" s="5" t="s">
+      <c r="C438" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E438" s="3">
@@ -9082,7 +9086,7 @@
       <c r="B439" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="C439" s="5" t="s">
+      <c r="C439" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E439" s="3">
@@ -9096,7 +9100,7 @@
       <c r="B440" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C440" s="5" t="s">
+      <c r="C440" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E440" s="3">
@@ -9110,7 +9114,7 @@
       <c r="B441" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="C441" s="5" t="s">
+      <c r="C441" s="7" t="s">
         <v>802</v>
       </c>
       <c r="E441" s="3">
@@ -9124,7 +9128,7 @@
       <c r="B442" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C442" s="5" t="s">
+      <c r="C442" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E442" s="3">
@@ -9138,7 +9142,7 @@
       <c r="B443" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="C443" s="5" t="s">
+      <c r="C443" s="7" t="s">
         <v>805</v>
       </c>
       <c r="E443" s="3">
@@ -9152,7 +9156,7 @@
       <c r="B444" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="C444" s="6" t="s">
+      <c r="C444" s="8" t="s">
         <v>808</v>
       </c>
       <c r="E444" s="3">
@@ -9166,7 +9170,7 @@
       <c r="B445" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C445" s="6" t="s">
+      <c r="C445" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E445" s="3">
@@ -9180,7 +9184,7 @@
       <c r="B446" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C446" s="5" t="s">
+      <c r="C446" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E446" s="3">
@@ -9194,7 +9198,7 @@
       <c r="B447" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C447" s="6" t="s">
+      <c r="C447" s="8" t="s">
         <v>813</v>
       </c>
       <c r="E447" s="3">
@@ -9208,7 +9212,7 @@
       <c r="B448" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C448" s="6" t="s">
+      <c r="C448" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E448" s="3">
@@ -9222,7 +9226,7 @@
       <c r="B449" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C449" s="5" t="s">
+      <c r="C449" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E449" s="3">
@@ -9236,7 +9240,7 @@
       <c r="B450" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="C450" s="5" t="s">
+      <c r="C450" s="7" t="s">
         <v>818</v>
       </c>
       <c r="E450" s="3">
@@ -9250,7 +9254,7 @@
       <c r="B451" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C451" s="5" t="s">
+      <c r="C451" s="7" t="s">
         <v>717</v>
       </c>
       <c r="E451" s="3">
@@ -9264,7 +9268,7 @@
       <c r="B452" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C452" s="5" t="s">
+      <c r="C452" s="7" t="s">
         <v>331</v>
       </c>
       <c r="E452" s="3">
@@ -9278,7 +9282,7 @@
       <c r="B453" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="C453" s="5" t="s">
+      <c r="C453" s="7" t="s">
         <v>824</v>
       </c>
       <c r="E453" s="3">
@@ -9292,7 +9296,7 @@
       <c r="B454" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="C454" s="5" t="s">
+      <c r="C454" s="7" t="s">
         <v>827</v>
       </c>
       <c r="E454" s="3">
@@ -9306,7 +9310,7 @@
       <c r="B455" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C455" s="5" t="s">
+      <c r="C455" s="7" t="s">
         <v>818</v>
       </c>
       <c r="E455" s="3">
@@ -9320,7 +9324,7 @@
       <c r="B456" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C456" s="5" t="s">
+      <c r="C456" s="7" t="s">
         <v>717</v>
       </c>
       <c r="E456" s="3">
@@ -9334,7 +9338,7 @@
       <c r="B457" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="C457" s="5" t="s">
+      <c r="C457" s="7" t="s">
         <v>833</v>
       </c>
       <c r="E457" s="3">
@@ -9348,7 +9352,7 @@
       <c r="B458" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="C458" s="5" t="s">
+      <c r="C458" s="7" t="s">
         <v>836</v>
       </c>
       <c r="E458" s="3">
@@ -9362,7 +9366,7 @@
       <c r="B459" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="C459" s="5" t="s">
+      <c r="C459" s="7" t="s">
         <v>827</v>
       </c>
       <c r="E459" s="3">
@@ -9376,7 +9380,7 @@
       <c r="B460" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="C460" s="6" t="s">
+      <c r="C460" s="8" t="s">
         <v>840</v>
       </c>
       <c r="E460" s="3">
@@ -9390,7 +9394,7 @@
       <c r="B461" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C461" s="6" t="s">
+      <c r="C461" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E461" s="3">
@@ -9404,7 +9408,7 @@
       <c r="B462" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C462" s="5" t="s">
+      <c r="C462" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E462" s="3">
@@ -9418,7 +9422,7 @@
       <c r="B463" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="C463" s="6" t="s">
+      <c r="C463" s="8" t="s">
         <v>845</v>
       </c>
       <c r="E463" s="3">
@@ -9432,7 +9436,7 @@
       <c r="B464" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C464" s="6" t="s">
+      <c r="C464" s="8" t="s">
         <v>519</v>
       </c>
       <c r="E464" s="3">
@@ -9446,7 +9450,7 @@
       <c r="B465" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C465" s="5" t="s">
+      <c r="C465" s="7" t="s">
         <v>522</v>
       </c>
       <c r="E465" s="3">
@@ -9460,7 +9464,7 @@
       <c r="B466" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="C466" s="5" t="s">
+      <c r="C466" s="7" t="s">
         <v>850</v>
       </c>
       <c r="D466" s="3" t="s">
@@ -9477,7 +9481,7 @@
       <c r="B467" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="C467" s="5" t="s">
+      <c r="C467" s="7" t="s">
         <v>854</v>
       </c>
       <c r="D467" s="3" t="s">
